--- a/待分类/猫饭菜系设计.xlsx
+++ b/待分类/猫饭菜系设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18330" windowHeight="11895" activeTab="2"/>
+    <workbookView windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>猫饭UI</t>
+  </si>
+  <si>
+    <t>整个猫饭制作的UI</t>
+  </si>
+  <si>
+    <t>交互表现</t>
+  </si>
+  <si>
+    <t>1.同用餐地区的交互
+2.同设定的NPC交互</t>
+  </si>
+  <si>
+    <t>做菜动画制作</t>
+  </si>
+  <si>
+    <t>1.外带动画仅显示一个盒子
+2.上菜动画在尽量复用的基础下，有一定的区别</t>
+  </si>
+  <si>
+    <t>上菜动画制作</t>
+  </si>
+  <si>
+    <t>交互艾露猫动画制作</t>
+  </si>
+  <si>
+    <t>食用动画制作</t>
+  </si>
+  <si>
+    <t>原画制作</t>
+  </si>
+  <si>
+    <t>厨房场景原画、食材原画，用餐区域原画。</t>
+  </si>
+  <si>
+    <t>厨房场景建模制作</t>
+  </si>
+  <si>
+    <t>用餐区域场景建模制作</t>
+  </si>
+  <si>
+    <t>成品菜品建模制作</t>
+  </si>
+  <si>
+    <t>每个品类做一个（4个）</t>
+  </si>
+  <si>
+    <t>餐具建模制作</t>
+  </si>
   <si>
     <t>1.按照一个菜系（国家）来，对应肉、蔬菜、水果、海鲜（鱼）四种做法。</t>
   </si>
@@ -390,12 +440,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,7 +598,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,7 +628,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,28 +646,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,10 +676,10 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,9 +737,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,14 +1118,142 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="81.375" customWidth="1"/>
+    <col min="5" max="5" width="99.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="81" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="121.5" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" ht="67.5" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" ht="27" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1034,7 +1265,7 @@
   <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1042,27 +1273,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/待分类/猫饭菜系设计.xlsx
+++ b/待分类/猫饭菜系设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14625" activeTab="1"/>
+    <workbookView windowHeight="16500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>猫饭UI</t>
   </si>
@@ -68,6 +68,33 @@
     <t>餐具建模制作</t>
   </si>
   <si>
+    <t>怪物猎人参见食材：</t>
+  </si>
+  <si>
+    <t>肉类</t>
+  </si>
+  <si>
+    <t>火腿（大腿肉）、蛋、肉块、烤全（鸡、羊）、内脏（肝）</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>整只鱼、贝类（扇贝、鲍鱼、螺）、螃蟹、章鱼、龙虾、小虾</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>芹、洋葱、仙人掌、番茄、土豆、蘑菇（松露、普通蘑菇）、竹笋、豆</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>凤梨、榴莲、芒果</t>
+  </si>
+  <si>
     <t>1.按照一个菜系（国家）来，对应肉、蔬菜、水果、海鲜（鱼）四种做法。</t>
   </si>
   <si>
@@ -81,6 +108,15 @@
   </si>
   <si>
     <t>5.考虑到怪物猎人的现有食材</t>
+  </si>
+  <si>
+    <t>6.东方村，东方村，用东方的菜系，优先推荐中餐</t>
+  </si>
+  <si>
+    <t>7.用餐区域包括：区域空间、区域装饰、料理长一名、帮厨n名</t>
+  </si>
+  <si>
+    <t>8.具备差异化与新鲜内容体验（涵盖多丰富形式，多类差异化的地方特色）；兼容性与拓展性极高（可延展夸张表现得主食+肉、蔬菜、配菜，eg中华小当家）</t>
   </si>
 </sst>
 </file>
@@ -812,6 +848,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="《怪物猎人：世界》全食材一览"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="2809875"/>
+          <a:ext cx="9534525" cy="5972810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1118,10 +1201,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1131,7 +1214,7 @@
     <col min="5" max="5" width="99.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1225,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="81" spans="1:5">
+    <row r="2" ht="27" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1153,7 +1236,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="121.5" spans="1:5">
+    <row r="3" ht="27" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1256,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" ht="40.5" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1265,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" ht="27" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1274,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" ht="67.5" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1285,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" ht="27" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1294,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" ht="40.5" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1220,7 +1303,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" ht="40.5" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1314,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" ht="40.5" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1241,6 +1324,43 @@
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1257,43 +1377,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/待分类/猫饭菜系设计.xlsx
+++ b/待分类/猫饭菜系设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16500" activeTab="1"/>
+    <workbookView windowWidth="26655" windowHeight="16500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>猫饭UI</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>8.具备差异化与新鲜内容体验（涵盖多丰富形式，多类差异化的地方特色）；兼容性与拓展性极高（可延展夸张表现得主食+肉、蔬菜、配菜，eg中华小当家）</t>
+  </si>
+  <si>
+    <t>9.动画，场景各有三次升级。</t>
   </si>
 </sst>
 </file>
@@ -129,13 +132,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -631,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,34 +652,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,112 +688,121 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -856,14 +871,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -880,7 +895,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="2809875"/>
+          <a:off x="1695450" y="3162300"/>
           <a:ext cx="9534525" cy="5972810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1203,162 +1218,164 @@
   <sheetPr/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="81.375" customWidth="1"/>
-    <col min="5" max="5" width="99.625" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="99.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="33" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="33" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="A52" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="A53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="A55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="A56" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1384,13 +1401,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1430,6 +1447,11 @@
     <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/待分类/猫饭菜系设计.xlsx
+++ b/待分类/猫饭菜系设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26655" windowHeight="16500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="1" r:id="rId1"/>
@@ -16,56 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
-  <si>
-    <t>猫饭UI</t>
-  </si>
-  <si>
-    <t>整个猫饭制作的UI</t>
-  </si>
-  <si>
-    <t>交互表现</t>
-  </si>
-  <si>
-    <t>1.同用餐地区的交互
-2.同设定的NPC交互</t>
-  </si>
-  <si>
-    <t>做菜动画制作</t>
-  </si>
-  <si>
-    <t>1.外带动画仅显示一个盒子
-2.上菜动画在尽量复用的基础下，有一定的区别</t>
-  </si>
-  <si>
-    <t>上菜动画制作</t>
-  </si>
-  <si>
-    <t>交互艾露猫动画制作</t>
-  </si>
-  <si>
-    <t>食用动画制作</t>
-  </si>
-  <si>
-    <t>原画制作</t>
-  </si>
-  <si>
-    <t>厨房场景原画、食材原画，用餐区域原画。</t>
-  </si>
-  <si>
-    <t>厨房场景建模制作</t>
-  </si>
-  <si>
-    <t>用餐区域场景建模制作</t>
-  </si>
-  <si>
-    <t>成品菜品建模制作</t>
-  </si>
-  <si>
-    <t>每个品类做一个（4个）</t>
-  </si>
-  <si>
-    <t>餐具建模制作</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>猫饭包装</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>料理一览</t>
+  </si>
+  <si>
+    <t>一.料理表</t>
   </si>
   <si>
     <t>怪物猎人参见食材：</t>
@@ -95,7 +57,19 @@
     <t>凤梨、榴莲、芒果</t>
   </si>
   <si>
-    <t>1.按照一个菜系（国家）来，对应肉、蔬菜、水果、海鲜（鱼）四种做法。</t>
+    <t>二.制作动画</t>
+  </si>
+  <si>
+    <t>食堂环境</t>
+  </si>
+  <si>
+    <t>一.整体外观</t>
+  </si>
+  <si>
+    <t>二.内部装饰</t>
+  </si>
+  <si>
+    <t>三.</t>
   </si>
   <si>
     <t>2.做菜的动画，厨房的设计。</t>
@@ -105,12 +79,6 @@
   </si>
   <si>
     <t>4.环境都是次要的，要思考菜系和四种菜肴做法，有了一套思路后再去倒退环境。</t>
-  </si>
-  <si>
-    <t>5.考虑到怪物猎人的现有食材</t>
-  </si>
-  <si>
-    <t>6.东方村，东方村，用东方的菜系，优先推荐中餐</t>
   </si>
   <si>
     <t>7.用餐区域包括：区域空间、区域装饰、料理长一名、帮厨n名</t>
@@ -132,7 +100,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +115,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -291,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +275,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,53 +466,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,36 +592,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,94 +628,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,22 +726,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,53 +803,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="《怪物猎人：世界》全食材一览"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1695450" y="3162300"/>
-          <a:ext cx="9534525" cy="5972810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,242 +1109,160 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="99.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="99.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:2">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="33" spans="1:5">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:2">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="33" spans="1:5">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:2">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/待分类/猫饭菜系设计.xlsx
+++ b/待分类/猫饭菜系设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>猫饭包装</t>
   </si>
@@ -30,7 +30,16 @@
     <t>一.料理表</t>
   </si>
   <si>
-    <t>怪物猎人参见食材：</t>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>参考图</t>
+  </si>
+  <si>
+    <t>北京烤鸭</t>
   </si>
   <si>
     <t>肉类</t>
@@ -57,6 +66,24 @@
     <t>凤梨、榴莲、芒果</t>
   </si>
   <si>
+    <t>卤肉</t>
+  </si>
+  <si>
+    <t>豆腐皮蛋</t>
+  </si>
+  <si>
+    <t>鲤鱼培面</t>
+  </si>
+  <si>
+    <t>海鲜</t>
+  </si>
+  <si>
+    <t>蒜蓉贝类</t>
+  </si>
+  <si>
+    <t>龙虾</t>
+  </si>
+  <si>
     <t>二.制作动画</t>
   </si>
   <si>
@@ -66,28 +93,10 @@
     <t>一.整体外观</t>
   </si>
   <si>
+    <t>采用整个东方村统一建筑设计。</t>
+  </si>
+  <si>
     <t>二.内部装饰</t>
-  </si>
-  <si>
-    <t>三.</t>
-  </si>
-  <si>
-    <t>2.做菜的动画，厨房的设计。</t>
-  </si>
-  <si>
-    <t>3.在之前做的文档上改。</t>
-  </si>
-  <si>
-    <t>4.环境都是次要的，要思考菜系和四种菜肴做法，有了一套思路后再去倒退环境。</t>
-  </si>
-  <si>
-    <t>7.用餐区域包括：区域空间、区域装饰、料理长一名、帮厨n名</t>
-  </si>
-  <si>
-    <t>8.具备差异化与新鲜内容体验（涵盖多丰富形式，多类差异化的地方特色）；兼容性与拓展性极高（可延展夸张表现得主食+肉、蔬菜、配菜，eg中华小当家）</t>
-  </si>
-  <si>
-    <t>9.动画，场景各有三次升级。</t>
   </si>
 </sst>
 </file>
@@ -722,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -803,6 +815,263 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>208915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2780030" y="2437765"/>
+          <a:ext cx="1944370" cy="810260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685165</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771140" y="3288665"/>
+          <a:ext cx="1134110" cy="844550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681990</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2767965" y="4161790"/>
+          <a:ext cx="1061085" cy="796290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773045" y="4981575"/>
+          <a:ext cx="1344930" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2787650" y="5800090"/>
+          <a:ext cx="1222375" cy="802640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2784475" y="6652895"/>
+          <a:ext cx="1454150" cy="1205230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,28 +1378,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="99.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="13.5" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="13.5" spans="1:2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
@@ -1152,120 +1421,233 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="3:20">
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="S13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="14" spans="3:20">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="S14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="15" spans="3:20">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="S15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5" t="s">
+      <c r="T15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:2">
-      <c r="B27" s="4" t="s">
+    <row r="16" spans="3:20">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="S16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="15">
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E33:E36"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
